--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H2">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I2">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J2">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N2">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O2">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P2">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q2">
-        <v>222.9702265212503</v>
+        <v>1.941744334105</v>
       </c>
       <c r="R2">
-        <v>222.9702265212503</v>
+        <v>17.475699006945</v>
       </c>
       <c r="S2">
-        <v>0.02878058526936576</v>
+        <v>0.00020887811195558</v>
       </c>
       <c r="T2">
-        <v>0.02878058526936576</v>
+        <v>0.0002289864349352987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H3">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I3">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J3">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N3">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P3">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q3">
-        <v>1374.876134089039</v>
+        <v>8.997992876900001</v>
       </c>
       <c r="R3">
-        <v>1374.876134089039</v>
+        <v>80.98193589210001</v>
       </c>
       <c r="S3">
-        <v>0.1774664735706063</v>
+        <v>0.0009679357526658792</v>
       </c>
       <c r="T3">
-        <v>0.1774664735706063</v>
+        <v>0.001061117199759588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H4">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I4">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J4">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N4">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O4">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P4">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q4">
-        <v>1980.20065368946</v>
+        <v>12.67880769815</v>
       </c>
       <c r="R4">
-        <v>1980.20065368946</v>
+        <v>114.10926928335</v>
       </c>
       <c r="S4">
-        <v>0.2556006452212657</v>
+        <v>0.001363889863007184</v>
       </c>
       <c r="T4">
-        <v>0.2556006452212657</v>
+        <v>0.001495189105504862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H5">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I5">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J5">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N5">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O5">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P5">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q5">
-        <v>2099.151120310259</v>
+        <v>12.59169769964</v>
       </c>
       <c r="R5">
-        <v>2099.151120310259</v>
+        <v>113.32527929676</v>
       </c>
       <c r="S5">
-        <v>0.2709545518877438</v>
+        <v>0.001354519230786641</v>
       </c>
       <c r="T5">
-        <v>0.2709545518877438</v>
+        <v>0.00148491637924751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H6">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I6">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J6">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N6">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O6">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P6">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q6">
-        <v>956.3404646533869</v>
+        <v>5.9057298870675</v>
       </c>
       <c r="R6">
-        <v>956.3404646533869</v>
+        <v>35.434379322405</v>
       </c>
       <c r="S6">
-        <v>0.1234426619146771</v>
+        <v>0.0006352935795220887</v>
       </c>
       <c r="T6">
-        <v>0.1234426619146771</v>
+        <v>0.0004643014389271646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H7">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I7">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J7">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N7">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O7">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P7">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q7">
-        <v>37.43450332819942</v>
+        <v>371.2507524900921</v>
       </c>
       <c r="R7">
-        <v>37.43450332819942</v>
+        <v>3341.256772410829</v>
       </c>
       <c r="S7">
-        <v>0.004831976591058084</v>
+        <v>0.03993633707599399</v>
       </c>
       <c r="T7">
-        <v>0.004831976591058084</v>
+        <v>0.04378093695787046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H8">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I8">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J8">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N8">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P8">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q8">
-        <v>230.8281514550685</v>
+        <v>1720.366357082402</v>
       </c>
       <c r="R8">
-        <v>230.8281514550685</v>
+        <v>15483.29721374162</v>
       </c>
       <c r="S8">
-        <v>0.02979487171525803</v>
+        <v>0.1850639500925355</v>
       </c>
       <c r="T8">
-        <v>0.02979487171525803</v>
+        <v>0.2028797262192109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H9">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I9">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J9">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N9">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O9">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P9">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q9">
-        <v>332.4561719184331</v>
+        <v>2424.117746059986</v>
       </c>
       <c r="R9">
-        <v>332.4561719184331</v>
+        <v>21817.05971453987</v>
       </c>
       <c r="S9">
-        <v>0.04291282900640314</v>
+        <v>0.2607681809914555</v>
       </c>
       <c r="T9">
-        <v>0.04291282900640314</v>
+        <v>0.2858718682907979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H10">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I10">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J10">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N10">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O10">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P10">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q10">
-        <v>352.4267828294948</v>
+        <v>2407.46279724503</v>
       </c>
       <c r="R10">
-        <v>352.4267828294948</v>
+        <v>21667.16517520527</v>
       </c>
       <c r="S10">
-        <v>0.0454905986000146</v>
+        <v>0.2589765680576198</v>
       </c>
       <c r="T10">
-        <v>0.0454905986000146</v>
+        <v>0.2839077799779437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H11">
+        <v>131.577157</v>
+      </c>
+      <c r="I11">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J11">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>25.7448065</v>
+      </c>
+      <c r="N11">
+        <v>51.489613</v>
+      </c>
+      <c r="O11">
+        <v>0.1402254189345309</v>
+      </c>
+      <c r="P11">
+        <v>0.09806746298324462</v>
+      </c>
+      <c r="Q11">
+        <v>1129.14281559504</v>
+      </c>
+      <c r="R11">
+        <v>6774.856893570241</v>
+      </c>
+      <c r="S11">
+        <v>0.1214646106117829</v>
+      </c>
+      <c r="T11">
+        <v>0.08877186123650681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.089704</v>
+      </c>
+      <c r="I12">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J12">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.464632333333334</v>
+      </c>
+      <c r="N12">
+        <v>25.393897</v>
+      </c>
+      <c r="O12">
+        <v>0.04610470135281236</v>
+      </c>
+      <c r="P12">
+        <v>0.0483653868994476</v>
+      </c>
+      <c r="Q12">
+        <v>55.39976585608134</v>
+      </c>
+      <c r="R12">
+        <v>332.398595136488</v>
+      </c>
+      <c r="S12">
+        <v>0.005959486164862799</v>
+      </c>
+      <c r="T12">
+        <v>0.004355463506641846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.45359715342374</v>
-      </c>
-      <c r="H11">
-        <v>6.45359715342374</v>
-      </c>
-      <c r="I11">
-        <v>0.1437550821363413</v>
-      </c>
-      <c r="J11">
-        <v>0.1437550821363413</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>24.8791695598775</v>
-      </c>
-      <c r="N11">
-        <v>24.8791695598775</v>
-      </c>
-      <c r="O11">
-        <v>0.1441674681382846</v>
-      </c>
-      <c r="P11">
-        <v>0.1441674681382846</v>
-      </c>
-      <c r="Q11">
-        <v>160.560137851172</v>
-      </c>
-      <c r="R11">
-        <v>160.560137851172</v>
-      </c>
-      <c r="S11">
-        <v>0.02072480622360748</v>
-      </c>
-      <c r="T11">
-        <v>0.02072480622360748</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.089704</v>
+      </c>
+      <c r="I13">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J13">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>39.22488666666667</v>
+      </c>
+      <c r="N13">
+        <v>117.67466</v>
+      </c>
+      <c r="O13">
+        <v>0.2136479901487249</v>
+      </c>
+      <c r="P13">
+        <v>0.2241239483314023</v>
+      </c>
+      <c r="Q13">
+        <v>256.7210779501067</v>
+      </c>
+      <c r="R13">
+        <v>1540.32646770064</v>
+      </c>
+      <c r="S13">
+        <v>0.02761610430352355</v>
+      </c>
+      <c r="T13">
+        <v>0.02018310491243179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H14">
+        <v>13.089704</v>
+      </c>
+      <c r="I14">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J14">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>55.27063666666667</v>
+      </c>
+      <c r="N14">
+        <v>165.81191</v>
+      </c>
+      <c r="O14">
+        <v>0.3010451129769252</v>
+      </c>
+      <c r="P14">
+        <v>0.3158064782135008</v>
+      </c>
+      <c r="Q14">
+        <v>361.7381369291067</v>
+      </c>
+      <c r="R14">
+        <v>2170.428821574641</v>
+      </c>
+      <c r="S14">
+        <v>0.03891304212246256</v>
+      </c>
+      <c r="T14">
+        <v>0.02843942081719801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H15">
+        <v>13.089704</v>
+      </c>
+      <c r="I15">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J15">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.89089866666666</v>
+      </c>
+      <c r="N15">
+        <v>164.672696</v>
+      </c>
+      <c r="O15">
+        <v>0.2989767765870066</v>
+      </c>
+      <c r="P15">
+        <v>0.3136367235724047</v>
+      </c>
+      <c r="Q15">
+        <v>359.2528079203307</v>
+      </c>
+      <c r="R15">
+        <v>2155.516847521984</v>
+      </c>
+      <c r="S15">
+        <v>0.03864568929860027</v>
+      </c>
+      <c r="T15">
+        <v>0.02824402721521343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H16">
+        <v>13.089704</v>
+      </c>
+      <c r="I16">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J16">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.7448065</v>
+      </c>
+      <c r="N16">
+        <v>51.489613</v>
+      </c>
+      <c r="O16">
+        <v>0.1402254189345309</v>
+      </c>
+      <c r="P16">
+        <v>0.09806746298324462</v>
+      </c>
+      <c r="Q16">
+        <v>168.495948311138</v>
+      </c>
+      <c r="R16">
+        <v>673.9837932445521</v>
+      </c>
+      <c r="S16">
+        <v>0.01812551474322588</v>
+      </c>
+      <c r="T16">
+        <v>0.008831300307810635</v>
       </c>
     </row>
   </sheetData>
